--- a/Design Files/Schematic_BOM/BD8316GWL-EVK-101_BOM_REV01_2015-11-10.xlsx
+++ b/Design Files/Schematic_BOM/BD8316GWL-EVK-101_BOM_REV01_2015-11-10.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsatomi\Desktop\BD8316\BD8316\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsatomi\Documents\GitHub\BD8316GWL-EVK-101\Design Files\Schematic_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="BD9G341EFJ-E2EVK-101_BOM_REV01" sheetId="1" r:id="rId1"/>
+    <sheet name="BD8316GWL-EVK-101_BOM_REV01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
